--- a/biology/Zoologie/Cerastes_vipera/Cerastes_vipera.xlsx
+++ b/biology/Zoologie/Cerastes_vipera/Cerastes_vipera.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cerastes vipera est une espèce de serpents de la famille des Viperidae[1].
-Elle est surnommée "vipère d'Avicenne"[2],[3].
-Elle appartient au genre cerastes comprenant entre autres la vipère à cornes (cerastes cerastes)[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cerastes vipera est une espèce de serpents de la famille des Viperidae.
+Elle est surnommée "vipère d'Avicenne",.
+Elle appartient au genre cerastes comprenant entre autres la vipère à cornes (cerastes cerastes).
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Mauritanie, au Sahara occidental, au Maroc, en Algérie, au Mali, au Niger, en Tunisie, en Libye, en Égypte au Sinaï et en Israël[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Mauritanie, au Sahara occidental, au Maroc, en Algérie, au Mali, au Niger, en Tunisie, en Libye, en Égypte au Sinaï et en Israël.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cerastes vipera mesure en moyenne 35 cm et jusqu'à un maximum de 50 cm[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cerastes vipera mesure en moyenne 35 cm et jusqu'à un maximum de 50 cm.
 </t>
         </is>
       </c>
@@ -575,7 +591,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Linnaeus, 1758 : Systema naturae per regna tria naturae, secundum classes, ordines, genera, species, cum characteribus, differentiis, synonymis, locis, ed. 10 (texte intégral).</t>
         </is>
